--- a/z0bug_odoo/z0bug_odoo/data/stock_inventory.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/stock_inventory.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Inventario iniziale</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;1-01-05</t>
+    <t xml:space="preserve">####-01-02</t>
   </si>
   <si>
     <t xml:space="preserve">stock.stock_location_stock</t>
@@ -174,10 +174,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.53"/>
